--- a/DeathStarBench.xlsx
+++ b/DeathStarBench.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamauchitakuya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC24F0-3B5D-A842-82C8-9230E2D2E2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B544362C-3694-864E-A473-FEF8EA39855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="28300" windowHeight="16100" activeTab="3" xr2:uid="{BAB64EA0-015E-4C40-AB7E-5171B8CC5D2C}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="16100" activeTab="4" xr2:uid="{BAB64EA0-015E-4C40-AB7E-5171B8CC5D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="daprApps_v1" sheetId="1" r:id="rId2"/>
     <sheet name="hotelReservation" sheetId="3" r:id="rId3"/>
     <sheet name="mediaMicroservices" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="socialNetwork" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6137" uniqueCount="2469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="2923">
   <si>
     <t>.</t>
   </si>
@@ -7628,12 +7628,1376 @@
     <t>│   │   │   ├── media_service_PlotService.lua</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>├── Dockerfile-loader</t>
+  </si>
+  <si>
+    <t>│   ├── FindLibevent.cmake</t>
+  </si>
+  <si>
+    <t>│   ├── mongod.conf</t>
+  </si>
+  <si>
+    <t>│   ├── redis.conf</t>
+  </si>
+  <si>
+    <t>│   └── social-graph</t>
+  </si>
+  <si>
+    <t>│       ├── ego-twitter</t>
+  </si>
+  <si>
+    <t>│       │   ├── ego-twitter-original.txt</t>
+  </si>
+  <si>
+    <t>│       │   ├── ego-twitter.edges</t>
+  </si>
+  <si>
+    <t>│       │   ├── ego-twitter.nodes</t>
+  </si>
+  <si>
+    <t>│       │   └── readme.md</t>
+  </si>
+  <si>
+    <t>│       ├── soc-twitter-follows-mun</t>
+  </si>
+  <si>
+    <t>│       │   ├── readme.html</t>
+  </si>
+  <si>
+    <t>│       │   ├── soc-twitter-follows-mun.edges</t>
+  </si>
+  <si>
+    <t>│       │   └── soc-twitter-follows-mun.nodes</t>
+  </si>
+  <si>
+    <t>│       └── socfb-Reed98</t>
+  </si>
+  <si>
+    <t>│           ├── readme.html</t>
+  </si>
+  <si>
+    <t>│           ├── socfb-Reed98.edges</t>
+  </si>
+  <si>
+    <t>│           └── socfb-Reed98.nodes</t>
+  </si>
+  <si>
+    <t>│   ├── media-frontend</t>
+  </si>
+  <si>
+    <t>│   │   ├── lualongnumber</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── Makefile</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── longnumberutils.c</t>
+  </si>
+  <si>
+    <t>│   │   │   └── lualongnumber.c</t>
+  </si>
+  <si>
+    <t>│   │       └── Dockerfile</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │       ├── Dockerfile</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │       ├── docker-compose.yaml</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │       ├── jaeger-config.json</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │       ├── server.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │       └── server_hello.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │       ├── README.md</t>
+  </si>
+  <si>
+    <t>│   │   │   │       └── tutorial.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       └── tracer.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── TSocketSSL.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── Makefile</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── longnumberutils.c</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── luabitwise.c</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── luabpack.c</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── lualongnumber.c</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── luasocket.c</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── socket.h</t>
+  </si>
+  <si>
+    <t>│   │   │       └── usocket.c</t>
+  </si>
+  <si>
+    <t>│   └── thrift-microservice-deps</t>
+  </si>
+  <si>
+    <t>│       ├── cpp</t>
+  </si>
+  <si>
+    <t>│       │   ├── Dockerfile</t>
+  </si>
+  <si>
+    <t>│       │   └── README.md</t>
+  </si>
+  <si>
+    <t>│       └── python</t>
+  </si>
+  <si>
+    <t>│           └── Dockerfile-py</t>
+  </si>
+  <si>
+    <t>├── docker-compose-tls.yml</t>
+  </si>
+  <si>
+    <t>├── figures</t>
+  </si>
+  <si>
+    <t>│   ├── follow.png</t>
+  </si>
+  <si>
+    <t>│   ├── home_timeline.png</t>
+  </si>
+  <si>
+    <t>│   ├── login.png</t>
+  </si>
+  <si>
+    <t>│   ├── signup.png</t>
+  </si>
+  <si>
+    <t>│   ├── socialNet_arch.png</t>
+  </si>
+  <si>
+    <t>│   ├── socialNet_jaeger.png</t>
+  </si>
+  <si>
+    <t>│   └── user_timeline.png</t>
+  </si>
+  <si>
+    <t>│   ├── ComposePostService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── ComposePostService.h</t>
+  </si>
+  <si>
+    <t>│   ├── ComposePostService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── HomeTimelineService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── HomeTimelineService.h</t>
+  </si>
+  <si>
+    <t>│   ├── HomeTimelineService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── MediaService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── MediaService.h</t>
+  </si>
+  <si>
+    <t>│   ├── MediaService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── PostStorageService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── PostStorageService.h</t>
+  </si>
+  <si>
+    <t>│   ├── PostStorageService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── SocialGraphService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── SocialGraphService.h</t>
+  </si>
+  <si>
+    <t>│   ├── SocialGraphService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UrlShortenService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UrlShortenService.h</t>
+  </si>
+  <si>
+    <t>│   ├── UrlShortenService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserMentionService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserMentionService.h</t>
+  </si>
+  <si>
+    <t>│   ├── UserMentionService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserTimelineService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserTimelineService.h</t>
+  </si>
+  <si>
+    <t>│   ├── UserTimelineService_server.skeleton.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_constants.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_constants.h</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_types.cpp</t>
+  </si>
+  <si>
+    <t>│   └── social_network_types.h</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_ComposePostService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_HomeTimelineService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_MediaService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_PostStorageService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_SocialGraphService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_TextService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_UniqueIdService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_UrlShortenService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_UserMentionService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_UserService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_UserTimelineService.lua</t>
+  </si>
+  <si>
+    <t>│   ├── social_network_constants.lua</t>
+  </si>
+  <si>
+    <t>│   └── social_network_ttypes.lua</t>
+  </si>
+  <si>
+    <t>│   └── social_network</t>
+  </si>
+  <si>
+    <t>│       ├── ComposePostService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── ComposePostService.py</t>
+  </si>
+  <si>
+    <t>│       ├── HomeTimelineService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── HomeTimelineService.py</t>
+  </si>
+  <si>
+    <t>│       ├── MediaService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── MediaService.py</t>
+  </si>
+  <si>
+    <t>│       ├── PostStorageService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── PostStorageService.py</t>
+  </si>
+  <si>
+    <t>│       ├── SocialGraphService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── SocialGraphService.py</t>
+  </si>
+  <si>
+    <t>│       ├── TextService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── TextService.py</t>
+  </si>
+  <si>
+    <t>│       ├── UniqueIdService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── UniqueIdService.py</t>
+  </si>
+  <si>
+    <t>│       ├── UrlShortenService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── UrlShortenService.py</t>
+  </si>
+  <si>
+    <t>│       ├── UserMentionService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── UserMentionService.py</t>
+  </si>
+  <si>
+    <t>│       ├── UserService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── UserService.py</t>
+  </si>
+  <si>
+    <t>│       ├── UserTimelineService-remote</t>
+  </si>
+  <si>
+    <t>│       ├── UserTimelineService.py</t>
+  </si>
+  <si>
+    <t>│       ├── __init__.py</t>
+  </si>
+  <si>
+    <t>│       ├── constants.py</t>
+  </si>
+  <si>
+    <t>│       └── ttypes.py</t>
+  </si>
+  <si>
+    <t>│   ├── assets</t>
+  </si>
+  <si>
+    <t>│   │   ├── memcached_cluster_deployment.png</t>
+  </si>
+  <si>
+    <t>│   │   ├── memcached_default_deployment.png</t>
+  </si>
+  <si>
+    <t>│   │   ├── mongodb_default_deployment.png</t>
+  </si>
+  <si>
+    <t>│   │   └── mongodb_sharded_deployment.png</t>
+  </si>
+  <si>
+    <t>│   └── socialnetwork</t>
+  </si>
+  <si>
+    <t>│       ├── Chart.lock</t>
+  </si>
+  <si>
+    <t>│       ├── Chart.yaml</t>
+  </si>
+  <si>
+    <t>│       ├── charts</t>
+  </si>
+  <si>
+    <t>│       │   ├── compose-post-service</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── Chart.yaml</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── configs</t>
+  </si>
+  <si>
+    <t>│       │   │   │   ├── jaeger-config</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── service-config</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── templates</t>
+  </si>
+  <si>
+    <t>│       │   │   │   ├── configmap.yaml</t>
+  </si>
+  <si>
+    <t>│       │   │   │   ├── deployment.yaml</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── service.yaml</t>
+  </si>
+  <si>
+    <t>│       │   │   └── values.yaml</t>
+  </si>
+  <si>
+    <t>│       │   ├── home-timeline-redis</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── redis</t>
+  </si>
+  <si>
+    <t>│       │   ├── home-timeline-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── jaeger</t>
+  </si>
+  <si>
+    <t>│       │   ├── mcrouter-0.3.0.tgz</t>
+  </si>
+  <si>
+    <t>│       │   ├── media-frontend</t>
+  </si>
+  <si>
+    <t>│       │   │   │   ├── nginx</t>
+  </si>
+  <si>
+    <t>│       │   ├── media-memcached</t>
+  </si>
+  <si>
+    <t>│       │   ├── media-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── mongod</t>
+  </si>
+  <si>
+    <t>│       │   ├── media-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── mongodb-sharded-6.0.1.tgz</t>
+  </si>
+  <si>
+    <t>│       │   ├── nginx-thrift</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── nginx</t>
+  </si>
+  <si>
+    <t>│       │   ├── post-storage-memcached</t>
+  </si>
+  <si>
+    <t>│       │   ├── post-storage-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   ├── post-storage-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── redis-17.3.7.tgz</t>
+  </si>
+  <si>
+    <t>│       │   ├── redis-cluster-8.1.4.tgz</t>
+  </si>
+  <si>
+    <t>│       │   ├── social-graph-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   ├── social-graph-redis</t>
+  </si>
+  <si>
+    <t>│       │   ├── social-graph-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── text-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── unique-id-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── url-shorten-memcached</t>
+  </si>
+  <si>
+    <t>│       │   ├── url-shorten-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   ├── url-shorten-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-memcached</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-mention-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-service</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-timeline-mongodb</t>
+  </si>
+  <si>
+    <t>│       │   ├── user-timeline-redis</t>
+  </si>
+  <si>
+    <t>│       │   └── user-timeline-service</t>
+  </si>
+  <si>
+    <t>│       │       ├── Chart.yaml</t>
+  </si>
+  <si>
+    <t>│       │       ├── configs</t>
+  </si>
+  <si>
+    <t>│       │       │   ├── jaeger-config</t>
+  </si>
+  <si>
+    <t>│       │       │   └── service-config</t>
+  </si>
+  <si>
+    <t>│       │       ├── templates</t>
+  </si>
+  <si>
+    <t>│       │       │   ├── configmap.yaml</t>
+  </si>
+  <si>
+    <t>│       │       │   ├── deployment.yaml</t>
+  </si>
+  <si>
+    <t>│       │       │   └── service.yaml</t>
+  </si>
+  <si>
+    <t>│       │       └── values.yaml</t>
+  </si>
+  <si>
+    <t>│       ├── templates</t>
+  </si>
+  <si>
+    <t>│       │   ├── _baseConfigMap.tpl</t>
+  </si>
+  <si>
+    <t>│       │   ├── _baseDeployment.tpl</t>
+  </si>
+  <si>
+    <t>│       │   ├── _baseNginxDeployment.tpl</t>
+  </si>
+  <si>
+    <t>│       │   ├── _baseService.tpl</t>
+  </si>
+  <si>
+    <t>│       │   ├── configs</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── media-service</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── nginx.tpl</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── mongo</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── mongod.tpl</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── nginx</t>
+  </si>
+  <si>
+    <t>│       │   │   │   ├── jaeger-config.tpl</t>
+  </si>
+  <si>
+    <t>│       │   │   ├── other</t>
+  </si>
+  <si>
+    <t>│       │   │   │   └── service-config.tpl</t>
+  </si>
+  <si>
+    <t>│       │   │   └── redis</t>
+  </si>
+  <si>
+    <t>│       │   │       └── redis.tpl</t>
+  </si>
+  <si>
+    <t>│       │   └── hooks</t>
+  </si>
+  <si>
+    <t>│       │       ├── mcrouter</t>
+  </si>
+  <si>
+    <t>│       │       │   └── post-install-hook.yaml</t>
+  </si>
+  <si>
+    <t>│       │       ├── mongodb</t>
+  </si>
+  <si>
+    <t>│       │       └── redis-cluster</t>
+  </si>
+  <si>
+    <t>│       │           ├── configmap.yaml</t>
+  </si>
+  <si>
+    <t>│       │           └── post-install-hook.yaml</t>
+  </si>
+  <si>
+    <t>│       └── values.yaml</t>
+  </si>
+  <si>
+    <t>├── keys</t>
+  </si>
+  <si>
+    <t>│   ├── CA.pem</t>
+  </si>
+  <si>
+    <t>│   ├── server.crt</t>
+  </si>
+  <si>
+    <t>│   ├── server.key</t>
+  </si>
+  <si>
+    <t>│   └── server.pem</t>
+  </si>
+  <si>
+    <t>├── media-frontend</t>
+  </si>
+  <si>
+    <t>│       ├── get-media.lua</t>
+  </si>
+  <si>
+    <t>│       └── upload-media.lua</t>
+  </si>
+  <si>
+    <t>│   │   ├── nginx-tls.conf</t>
+  </si>
+  <si>
+    <t>│   ├── lua-scripts</t>
+  </si>
+  <si>
+    <t>│   │   ├── api</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── home-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── post</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── compose.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── user</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── follow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── get_followee.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── get_follower.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── login.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── register.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── unfollow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   └── user-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │       └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   └── wrk2-api</t>
+  </si>
+  <si>
+    <t>│   │       ├── home-timeline</t>
+  </si>
+  <si>
+    <t>│   │       │   └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │       ├── post</t>
+  </si>
+  <si>
+    <t>│   │       │   └── compose.lua</t>
+  </si>
+  <si>
+    <t>│   │       ├── user</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── follow.lua</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── register.lua</t>
+  </si>
+  <si>
+    <t>│   │       │   └── unfollow.lua</t>
+  </si>
+  <si>
+    <t>│   │       └── user-timeline</t>
+  </si>
+  <si>
+    <t>│   │           └── read.lua</t>
+  </si>
+  <si>
+    <t>│   └── pages</t>
+  </si>
+  <si>
+    <t>│       ├── compose.html</t>
+  </si>
+  <si>
+    <t>│       ├── contact.html</t>
+  </si>
+  <si>
+    <t>│       ├── index.html</t>
+  </si>
+  <si>
+    <t>│       ├── jaeger-config.json</t>
+  </si>
+  <si>
+    <t>│       ├── javascript</t>
+  </si>
+  <si>
+    <t>│       │   ├── button-click.js</t>
+  </si>
+  <si>
+    <t>│       │   ├── contact.js</t>
+  </si>
+  <si>
+    <t>│       │   ├── create-post.js</t>
+  </si>
+  <si>
+    <t>│       │   ├── default_user.js</t>
+  </si>
+  <si>
+    <t>│       │   ├── get-followee.js</t>
+  </si>
+  <si>
+    <t>│       │   ├── get-follower.js</t>
+  </si>
+  <si>
+    <t>│       │   └── timeline.js</t>
+  </si>
+  <si>
+    <t>│       ├── main.html</t>
+  </si>
+  <si>
+    <t>│       ├── profile.html</t>
+  </si>
+  <si>
+    <t>│       ├── signup.html</t>
+  </si>
+  <si>
+    <t>│       └── style</t>
+  </si>
+  <si>
+    <t>│           ├── login.css</t>
+  </si>
+  <si>
+    <t>│           ├── main.css</t>
+  </si>
+  <si>
+    <t>│           └── signup.css</t>
+  </si>
+  <si>
+    <t>│   ├── compose-post-redis.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── compose-post-service.yaml</t>
+  </si>
+  <si>
+    <t>│   │   ├── jaeger-config.yml</t>
+  </si>
+  <si>
+    <t>│   │   └── service-config.json</t>
+  </si>
+  <si>
+    <t>│   ├── home-timeline-redis.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── home-timeline-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── media-frontend-config</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── get-media.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   └── upload-media.lua</t>
+  </si>
+  <si>
+    <t>│   ├── media-frontend.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── media-memcached.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── media-mongodb.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── media-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── nginx-thrift-config</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_ComposePostService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_HomeTimelineService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_MediaService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_PostStorageService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_SocialGraphService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_TextService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_UniqueIdService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_UrlShortenService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_UserMentionService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_UserService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_UserTimelineService.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── social_network_constants.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   └── social_network_ttypes.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── api</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── home-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── post</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   └── compose.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   ├── user</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   ├── follow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   ├── login.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   ├── register.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   │   └── unfollow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │   │   └── user-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │   │       └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── home-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │       │   └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── post</t>
+  </si>
+  <si>
+    <t>│   │   │       │   └── compose.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       ├── user</t>
+  </si>
+  <si>
+    <t>│   │   │       │   ├── follow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       │   ├── register.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       │   └── unfollow.lua</t>
+  </si>
+  <si>
+    <t>│   │   │       └── user-timeline</t>
+  </si>
+  <si>
+    <t>│   │   │           └── read.lua</t>
+  </si>
+  <si>
+    <t>│   │   └── pages</t>
+  </si>
+  <si>
+    <t>│   │       ├── compose.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── contact.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── favicon.ico</t>
+  </si>
+  <si>
+    <t>│   │       ├── home-timeline.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── index.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── jaeger-config.json</t>
+  </si>
+  <si>
+    <t>│   │       ├── javascript</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── button-click.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── contact.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── create-post.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── default_user.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── get-followee.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── get-follower.js</t>
+  </si>
+  <si>
+    <t>│   │       │   └── timeline.js</t>
+  </si>
+  <si>
+    <t>│   │       ├── login.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── main.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── pages</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── compose.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── contact.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── index.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── jaeger-config.json</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── javascript</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── button-click.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── contact.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── create-post.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── default_user.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── get-followee.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   ├── get-follower.js</t>
+  </si>
+  <si>
+    <t>│   │       │   │   └── timeline.js</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── main.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── profile.html</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── signup.html</t>
+  </si>
+  <si>
+    <t>│   │       │   └── style</t>
+  </si>
+  <si>
+    <t>│   │       │       ├── login.css</t>
+  </si>
+  <si>
+    <t>│   │       │       ├── main.css</t>
+  </si>
+  <si>
+    <t>│   │       │       └── signup.css</t>
+  </si>
+  <si>
+    <t>│   │       ├── profile.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── signup.html</t>
+  </si>
+  <si>
+    <t>│   │       ├── style</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── login.css</t>
+  </si>
+  <si>
+    <t>│   │       │   ├── main.css</t>
+  </si>
+  <si>
+    <t>│   │       │   └── signup.css</t>
+  </si>
+  <si>
+    <t>│   │       └── user-timeline.html</t>
+  </si>
+  <si>
+    <t>│   ├── nginx-thrift.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── post-storage-memcached.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── post-storage-mongodb.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── post-storage-service.yaml</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── create-jaeger-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── create-media-frontend-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── create-nginx-thrift-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── update-jaeger-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── update-media-frontend-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   │   │   └── update-nginx-thrift-configmap.sh</t>
+  </si>
+  <si>
+    <t>│   ├── social-graph-mongodb.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── social-graph-redis.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── social-graph-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── social-network-ns.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── ubuntu-client.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── url-shorten-memcached.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── url-shorten-mongodb.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── url-shorten-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── user-mention-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── user-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── user-timeline-mongodb.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── user-timeline-redis.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── user-timeline-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── write-home-timeline-rabbitmq.yaml</t>
+  </si>
+  <si>
+    <t>│   └── write-home-timeline-service.yaml</t>
+  </si>
+  <si>
+    <t>│   ├── config.py</t>
+  </si>
+  <si>
+    <t>│   ├── init_social_graph.py</t>
+  </si>
+  <si>
+    <t>│   └── setup_redis_cluster.sh</t>
+  </si>
+  <si>
+    <t>├── social_network.thrift</t>
+  </si>
+  <si>
+    <t>│   ├── AmqpLibeventHandler.h</t>
+  </si>
+  <si>
+    <t>│   ├── ComposePostService</t>
+  </si>
+  <si>
+    <t>│   │   ├── ComposePostHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   ├── ComposePostService.cpp</t>
+  </si>
+  <si>
+    <t>│   │   └── RabbitmqClient.h</t>
+  </si>
+  <si>
+    <t>│   ├── HomeTimelineService</t>
+  </si>
+  <si>
+    <t>│   │   ├── HomeTimelineHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── HomeTimelineService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── MediaService</t>
+  </si>
+  <si>
+    <t>│   │   ├── MediaHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── MediaService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── PostStorageService</t>
+  </si>
+  <si>
+    <t>│   │   ├── PostStorageHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── PostStorageService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── SocialGraphService</t>
+  </si>
+  <si>
+    <t>│   │   ├── SocialGraphHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── SocialGraphService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UrlShortenService</t>
+  </si>
+  <si>
+    <t>│   │   ├── UrlShortenHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── UrlShortenService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserMentionService</t>
+  </si>
+  <si>
+    <t>│   │   ├── UserMentionHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── UserMentionService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── UserTimelineService</t>
+  </si>
+  <si>
+    <t>│   │   ├── UserTimelineHandler.h</t>
+  </si>
+  <si>
+    <t>│   │   └── UserTimelineService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── WriteHomeTimelineService</t>
+  </si>
+  <si>
+    <t>│   │   └── WriteHomeTimelineService.cpp</t>
+  </si>
+  <si>
+    <t>│   ├── utils_mongodb.h</t>
+  </si>
+  <si>
+    <t>│   ├── utils_redis.h</t>
+  </si>
+  <si>
+    <t>│   └── utils_thrift.h</t>
+  </si>
+  <si>
+    <t>│   ├── TestComposePostE2E.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestPostStorage.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestReadHomeTimelineService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestSocialGraph.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestTextService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestUniqueIdService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestUrlShortenService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestUserMentionService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestUserService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestUserTimelineService.py</t>
+  </si>
+  <si>
+    <t>│   ├── TestWriteHomeTimelineService.py</t>
+  </si>
+  <si>
+    <t>│   └── testComposePost.py</t>
+  </si>
+  <si>
+    <t>│       ├── LICENSE</t>
+  </si>
+  <si>
+    <t>│       ├── README.md</t>
+  </si>
+  <si>
+    <t>│       └── picosha2.h</t>
+  </si>
+  <si>
+    <t>    └── scripts</t>
+  </si>
+  <si>
+    <t>        ├── addr.lua</t>
+  </si>
+  <si>
+    <t>        ├── auth.lua</t>
+  </si>
+  <si>
+    <t>        ├── counter.lua</t>
+  </si>
+  <si>
+    <t>        ├── multiplepaths.lua</t>
+  </si>
+  <si>
+    <t>        ├── pipeline.lua</t>
+  </si>
+  <si>
+    <t>        ├── post.lua</t>
+  </si>
+  <si>
+    <t>        ├── report.lua</t>
+  </si>
+  <si>
+    <t>        ├── setup.lua</t>
+  </si>
+  <si>
+    <t>        ├── social-network</t>
+  </si>
+  <si>
+    <t>        │   ├── compose-post.lua</t>
+  </si>
+  <si>
+    <t>        │   ├── mixed-workload.lua</t>
+  </si>
+  <si>
+    <t>        │   ├── read-home-timeline.lua</t>
+  </si>
+  <si>
+    <t>        │   └── read-user-timeline.lua</t>
+  </si>
+  <si>
+    <t>        ├── social-network-determinism</t>
+  </si>
+  <si>
+    <t>        └── stop.lua</t>
+  </si>
+  <si>
+    <t>197 directories, 653 files</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>カウンター有り</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スレッド起動</t>
+  </si>
+  <si>
+    <t>スレッド起動</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7685,6 +9049,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7708,7 +9098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7731,6 +9121,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8101,8 +9506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5B99B7-6F12-0648-9CA1-EA65F5955396}">
   <dimension ref="A2:D593"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -28350,8 +29755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAF9AF9-7C90-C748-8FCA-E2F9B4A6E351}">
   <dimension ref="A1:D790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B747" sqref="B747:C747"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -33172,12 +34577,5709 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61D6E4B-E34A-934F-9979-E9C02D5AAED2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D853"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="B833" sqref="B833:C840"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="8" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="8" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="8" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="8" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="8" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="8" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="8" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="8" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="8" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="8" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="8" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="8" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="8" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="8" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="9" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="8" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="8" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="8" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="8" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="8" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="8" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="8" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="8" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="8" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="8" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="8" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="8" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="8" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="8" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="8" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="8" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="8" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="8" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="8" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="8" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="8" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="8" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="8" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="8" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="8" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="8" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="8" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="8" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="8" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="8" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="8" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="8" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="8" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="8" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="8" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="9" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="8" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="8" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="8" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="8" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="8" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="8" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="8" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="8" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="8" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="8" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="8" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="8" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="8" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="8" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="8" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="8" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="8" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="8" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="8" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="8" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="9" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="10" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="8" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="9" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="9" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="8" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="9" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="8" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="8" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="9" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="8" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="8" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="8" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="9" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="8" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="8" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="9" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="8" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="9" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="8" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="9" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="9" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="8" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="8" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="8" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="8" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="8" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="9" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="9" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="9" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="9" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="9" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="9" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="8" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="8" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="8" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="9" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="8" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="9" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="8" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="8" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="8" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="8" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="8" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="8" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="8" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="8" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="8" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="8" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="8" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="8" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="8" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="8" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="8" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="8" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="8" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="8" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="8" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="8" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="8" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="8" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="8" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="8" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="8" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="8" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="8" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="8" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="8" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="8" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="8" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="8" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="8" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="8" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="8" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="8" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="8" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="8" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="8" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="8" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="8" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="8" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="8" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="8" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="8" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="8" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="8" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="8" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="8" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="8" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="8" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="8" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="8" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="8" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="8" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="8" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="8" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="8" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="8" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="8" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="8" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="8" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="8" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="8" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="8" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="8" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="8" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="8" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="8" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="8" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="8" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="8" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="8" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="8" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="8" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="8" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="8" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="8" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="8" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="8" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="8" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="8" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="8" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="8" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="8" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="8" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="8" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="8" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="8" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="8" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="8" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="8" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="8" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="8" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="8" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="8" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="8" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="8" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="8" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="8" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="8" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="8" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="8" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="8" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="8" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="8" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="8" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="8" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="8" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="8" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="8" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="8" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="8" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="8" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="8" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="8" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="8" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="8" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="8" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="8" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="8" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="8" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="8" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="8" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="8" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="8" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="8" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="8" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="8" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="8" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579" s="8" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580" s="8" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" s="8" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" s="8" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="8" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="8" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="8" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="8" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587" s="8" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588" s="8" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589" s="8" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590" s="8" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591" s="8" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="8" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="8" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="8" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="8" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="8" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="8" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="8" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="8" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="8" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="8" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="8" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="8" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="8" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="8" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="8" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="8" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="8" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="8" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="8" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="8" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="8" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="8" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="8" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="8" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="8" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="8" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621" s="9" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="9" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="9" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="9" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="9" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="9" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="9" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="9" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629" s="9" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="9" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631" s="9" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632" s="8" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="8" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="8" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="8" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="8" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="8" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="8" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" s="8" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="8" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="8" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="8" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="8" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" s="8" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="8" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="8" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="8" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="8" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="8" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="8" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="8" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="8" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" s="8" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" s="8" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" s="8" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" s="8" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="8" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" s="8" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="8" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" s="8" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="8" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" s="8" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="8" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="8" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="8" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="8" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="8" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="8" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" s="8" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" s="8" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" s="8" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="8" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="8" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="8" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="8" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="8" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="8" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="8" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="8" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="8" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="8" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="8" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="8" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="8" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="8" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="8" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="8" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="8" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="8" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="8" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="8" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="8" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="8" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="8" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="8" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="8" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="8" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="8" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="8" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="8" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="8" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="8" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="8" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="8" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="8" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="8" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="8" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="8" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="8" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="8" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="8" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="8" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="8" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="8" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="8" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="8" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="8" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="8" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="8" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="8" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="8" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="8" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="8" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="8" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="8" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="8" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="8" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="8" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="8" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="8" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="8" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" s="8" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738" s="8" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739" s="8" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" s="8" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741" s="8" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742" s="8" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" s="8" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744" s="8" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745" s="8" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746" s="8" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747" s="8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748" s="8" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749" s="8" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750" s="8" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751" s="8" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752" s="8" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="8" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="8" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="8" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="8" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="9" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="8" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="8" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="8" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="8" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="9" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="8" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="8" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="8" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="8" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="8" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="8" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="8" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="8" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="8" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="8" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="8" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4">
+      <c r="A781" s="8" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4">
+      <c r="A782" s="8" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4">
+      <c r="A783" s="8" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4">
+      <c r="A784" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="A785" s="8" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="A786" s="8" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B786" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C786" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D786" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="A787" s="8" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="A788" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="8" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="A790" s="8" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B790" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C790" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D790" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="A791" s="8" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="A792" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="8" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="8" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B794" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C794" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D794" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="A795" s="8" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="A796" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="8" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4">
+      <c r="A798" s="8" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B798" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C798" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D798" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4">
+      <c r="A799" s="8" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4">
+      <c r="A800" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="8" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="8" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B802" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C802" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D802" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4">
+      <c r="A803" s="8" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4">
+      <c r="A804" s="8" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4">
+      <c r="A805" s="8" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B805" s="11" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C805" s="11" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D805" s="12" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4">
+      <c r="A806" s="8" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4">
+      <c r="A807" s="8" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4">
+      <c r="A808" s="8" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4">
+      <c r="A809" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4">
+      <c r="A810" s="8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4">
+      <c r="A811" s="8" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4">
+      <c r="A812" s="8" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4">
+      <c r="A813" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4">
+      <c r="A814" s="8" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D814" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4">
+      <c r="A815" s="8" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D815" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4">
+      <c r="A816" s="8" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D816" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4">
+      <c r="A817" s="8" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D817" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4">
+      <c r="A818" s="8" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D818" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4">
+      <c r="A819" s="8" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D819" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4">
+      <c r="A820" s="8" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D820" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4">
+      <c r="A821" s="8" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D821" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4">
+      <c r="A822" s="8" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D822" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4">
+      <c r="A823" s="8" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D823" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4">
+      <c r="A824" s="8" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D824" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4">
+      <c r="A825" s="8" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D825" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4">
+      <c r="A826" s="8" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4">
+      <c r="A827" s="8" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4">
+      <c r="A828" s="8" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4">
+      <c r="A829" s="8" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4">
+      <c r="A830" s="8" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4">
+      <c r="A831" s="8" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4">
+      <c r="A832" s="8" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833" s="8" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834" s="8" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835" s="8" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" s="8" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837" s="8" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838" s="8" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" s="8" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="A840" s="8" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="A841" s="8" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="A842" s="9" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="A843" s="8" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="A844" s="8" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="A845" s="8" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846" s="8" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" s="9" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848" s="9" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849" s="9" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850" s="9" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" s="8" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853" s="8" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
